--- a/СШ110.xlsx
+++ b/СШ110.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikip\PycharmProjects\data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D893FF-AA84-4CBA-8036-685342097530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A0046F-1205-4D2E-8CCD-6E775226DAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="60" windowWidth="14370" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8583,7 +8583,7 @@
   <dimension ref="A1:H467"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>44958.899305555555</v>
+        <v>44958.899317129632</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>98</v>
@@ -8650,7 +8650,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>44958.899305555555</v>
+        <v>44958.899317129632</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>102</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>44958.899305555555</v>
+        <v>44958.899317129632</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>103</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44958.899305555555</v>
+        <v>44958.899317129632</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>107</v>
